--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H2">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I2">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J2">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.97385480470474</v>
+        <v>1.974591</v>
       </c>
       <c r="N2">
-        <v>1.97385480470474</v>
+        <v>3.949182</v>
       </c>
       <c r="O2">
-        <v>0.06803333923253485</v>
+        <v>0.06180909787364696</v>
       </c>
       <c r="P2">
-        <v>0.06803333923253485</v>
+        <v>0.04563698887180197</v>
       </c>
       <c r="Q2">
-        <v>0.459723166334264</v>
+        <v>0.5310632875635001</v>
       </c>
       <c r="R2">
-        <v>0.459723166334264</v>
+        <v>2.124253150254</v>
       </c>
       <c r="S2">
-        <v>4.508948679203398E-05</v>
+        <v>4.157678203757159E-05</v>
       </c>
       <c r="T2">
-        <v>4.508948679203398E-05</v>
+        <v>2.047017614439876E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H3">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I3">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J3">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.12902989469688</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N3">
-        <v>7.12902989469688</v>
+        <v>23.939497</v>
       </c>
       <c r="O3">
-        <v>0.2457180275209482</v>
+        <v>0.2497865318469965</v>
       </c>
       <c r="P3">
-        <v>0.2457180275209482</v>
+        <v>0.2766462923677706</v>
       </c>
       <c r="Q3">
-        <v>1.660395784061697</v>
+        <v>2.1461639363015</v>
       </c>
       <c r="R3">
-        <v>1.660395784061697</v>
+        <v>12.876983617809</v>
       </c>
       <c r="S3">
-        <v>0.0001628510357047431</v>
+        <v>0.0001680225168753257</v>
       </c>
       <c r="T3">
-        <v>0.0001628510357047431</v>
+        <v>0.0001240879048872161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H4">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I4">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J4">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.3738813118411</v>
+        <v>7.758748</v>
       </c>
       <c r="N4">
-        <v>6.3738813118411</v>
+        <v>23.276244</v>
       </c>
       <c r="O4">
-        <v>0.2196901355068341</v>
+        <v>0.2428660996170663</v>
       </c>
       <c r="P4">
-        <v>0.2196901355068341</v>
+        <v>0.2689817001103893</v>
       </c>
       <c r="Q4">
-        <v>1.484516941942293</v>
+        <v>2.086703636478</v>
       </c>
       <c r="R4">
-        <v>1.484516941942293</v>
+        <v>12.520221818868</v>
       </c>
       <c r="S4">
-        <v>0.0001456009006028393</v>
+        <v>0.0001633673882239129</v>
       </c>
       <c r="T4">
-        <v>0.0001456009006028393</v>
+        <v>0.0001206500016104613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H5">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I5">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J5">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.64872786355339</v>
+        <v>4.653158666666667</v>
       </c>
       <c r="N5">
-        <v>4.64872786355339</v>
+        <v>13.959476</v>
       </c>
       <c r="O5">
-        <v>0.1602288471203807</v>
+        <v>0.1456542339398937</v>
       </c>
       <c r="P5">
-        <v>0.1602288471203807</v>
+        <v>0.1613165589401012</v>
       </c>
       <c r="Q5">
-        <v>1.082717881662408</v>
+        <v>1.251460043662</v>
       </c>
       <c r="R5">
-        <v>1.082717881662408</v>
+        <v>7.508760261972001</v>
       </c>
       <c r="S5">
-        <v>0.0001061925898013584</v>
+        <v>9.797642330499694E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001061925898013584</v>
+        <v>7.235749899688264E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H6">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I6">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J6">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.04058791343723</v>
+        <v>2.249720666666667</v>
       </c>
       <c r="N6">
-        <v>2.04058791343723</v>
+        <v>6.749162</v>
       </c>
       <c r="O6">
-        <v>0.07033344571129799</v>
+        <v>0.07042126945497384</v>
       </c>
       <c r="P6">
-        <v>0.07033344571129799</v>
+        <v>0.07799372910339122</v>
       </c>
       <c r="Q6">
-        <v>0.4752657259859188</v>
+        <v>0.605058998719</v>
       </c>
       <c r="R6">
-        <v>0.4752657259859188</v>
+        <v>3.630353992314001</v>
       </c>
       <c r="S6">
-        <v>4.661389558725692E-05</v>
+        <v>4.73698835877507E-05</v>
       </c>
       <c r="T6">
-        <v>4.661389558725692E-05</v>
+        <v>3.498358266777338E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H7">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I7">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J7">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.84697015029042</v>
+        <v>7.330557000000001</v>
       </c>
       <c r="N7">
-        <v>6.84697015029042</v>
+        <v>14.661114</v>
       </c>
       <c r="O7">
-        <v>0.2359962049080041</v>
+        <v>0.2294627672674229</v>
       </c>
       <c r="P7">
-        <v>0.2359962049080041</v>
+        <v>0.1694247306065459</v>
       </c>
       <c r="Q7">
-        <v>1.594702300181879</v>
+        <v>1.9715423093145</v>
       </c>
       <c r="R7">
-        <v>1.594702300181879</v>
+        <v>7.886169237258001</v>
       </c>
       <c r="S7">
-        <v>0.000156407841864109</v>
+        <v>0.0001543514432117814</v>
       </c>
       <c r="T7">
-        <v>0.000156407841864109</v>
+        <v>7.599436694817071E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H8">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I8">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J8">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.97385480470474</v>
+        <v>1.974591</v>
       </c>
       <c r="N8">
-        <v>1.97385480470474</v>
+        <v>3.949182</v>
       </c>
       <c r="O8">
-        <v>0.06803333923253485</v>
+        <v>0.06180909787364696</v>
       </c>
       <c r="P8">
-        <v>0.06803333923253485</v>
+        <v>0.04563698887180197</v>
       </c>
       <c r="Q8">
-        <v>315.2316408948426</v>
+        <v>367.456492734678</v>
       </c>
       <c r="R8">
-        <v>315.2316408948426</v>
+        <v>2204.738956408068</v>
       </c>
       <c r="S8">
-        <v>0.03091780869320928</v>
+        <v>0.02876805620816604</v>
       </c>
       <c r="T8">
-        <v>0.03091780869320928</v>
+        <v>0.02124577044157596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H9">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I9">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J9">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.12902989469688</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N9">
-        <v>7.12902989469688</v>
+        <v>23.939497</v>
       </c>
       <c r="O9">
-        <v>0.2457180275209482</v>
+        <v>0.2497865318469965</v>
       </c>
       <c r="P9">
-        <v>0.2457180275209482</v>
+        <v>0.2766462923677706</v>
       </c>
       <c r="Q9">
-        <v>1138.5314595264</v>
+        <v>1484.986613337875</v>
       </c>
       <c r="R9">
-        <v>1138.5314595264</v>
+        <v>13364.87952004088</v>
       </c>
       <c r="S9">
-        <v>0.1116667659277901</v>
+        <v>0.116259146880075</v>
       </c>
       <c r="T9">
-        <v>0.1116667659277901</v>
+        <v>0.1287894702621445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H10">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I10">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J10">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.3738813118411</v>
+        <v>7.758748</v>
       </c>
       <c r="N10">
-        <v>6.3738813118411</v>
+        <v>23.276244</v>
       </c>
       <c r="O10">
-        <v>0.2196901355068341</v>
+        <v>0.2428660996170663</v>
       </c>
       <c r="P10">
-        <v>0.2196901355068341</v>
+        <v>0.2689817001103893</v>
       </c>
       <c r="Q10">
-        <v>1017.931541880152</v>
+        <v>1443.844486322584</v>
       </c>
       <c r="R10">
-        <v>1017.931541880152</v>
+        <v>12994.60037690326</v>
       </c>
       <c r="S10">
-        <v>0.09983836833540714</v>
+        <v>0.1130381423641634</v>
       </c>
       <c r="T10">
-        <v>0.09983836833540714</v>
+        <v>0.1252213083028611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H11">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I11">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J11">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.64872786355339</v>
+        <v>4.653158666666667</v>
       </c>
       <c r="N11">
-        <v>4.64872786355339</v>
+        <v>13.959476</v>
       </c>
       <c r="O11">
-        <v>0.1602288471203807</v>
+        <v>0.1456542339398937</v>
       </c>
       <c r="P11">
-        <v>0.1602288471203807</v>
+        <v>0.1613165589401012</v>
       </c>
       <c r="Q11">
-        <v>742.4183931911433</v>
+        <v>865.9177337440027</v>
       </c>
       <c r="R11">
-        <v>742.4183931911433</v>
+        <v>7793.259603696024</v>
       </c>
       <c r="S11">
-        <v>0.07281613541662448</v>
+        <v>0.06779243401199621</v>
       </c>
       <c r="T11">
-        <v>0.07281613541662448</v>
+        <v>0.07509905154553245</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H12">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I12">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J12">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.04058791343723</v>
+        <v>2.249720666666667</v>
       </c>
       <c r="N12">
-        <v>2.04058791343723</v>
+        <v>6.749162</v>
       </c>
       <c r="O12">
-        <v>0.07033344571129799</v>
+        <v>0.07042126945497384</v>
       </c>
       <c r="P12">
-        <v>0.07033344571129799</v>
+        <v>0.07799372910339122</v>
       </c>
       <c r="Q12">
-        <v>325.8891559854237</v>
+        <v>418.6560486733987</v>
       </c>
       <c r="R12">
-        <v>325.8891559854237</v>
+        <v>3767.904438060588</v>
       </c>
       <c r="S12">
-        <v>0.03196309403252424</v>
+        <v>0.03277645375236666</v>
       </c>
       <c r="T12">
-        <v>0.03196309403252424</v>
+        <v>0.03630907527812283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H13">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I13">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J13">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.84697015029042</v>
+        <v>7.330557000000001</v>
       </c>
       <c r="N13">
-        <v>6.84697015029042</v>
+        <v>14.661114</v>
       </c>
       <c r="O13">
-        <v>0.2359962049080041</v>
+        <v>0.2294627672674229</v>
       </c>
       <c r="P13">
-        <v>0.2359962049080041</v>
+        <v>0.1694247306065459</v>
       </c>
       <c r="Q13">
-        <v>1093.485513974732</v>
+        <v>1364.161370639106</v>
       </c>
       <c r="R13">
-        <v>1093.485513974732</v>
+        <v>8184.968223834637</v>
       </c>
       <c r="S13">
-        <v>0.1072486753991309</v>
+        <v>0.1067997756564094</v>
       </c>
       <c r="T13">
-        <v>0.1072486753991309</v>
+        <v>0.07887371674989288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H14">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I14">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J14">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.97385480470474</v>
+        <v>1.974591</v>
       </c>
       <c r="N14">
-        <v>1.97385480470474</v>
+        <v>3.949182</v>
       </c>
       <c r="O14">
-        <v>0.06803333923253485</v>
+        <v>0.06180909787364696</v>
       </c>
       <c r="P14">
-        <v>0.06803333923253485</v>
+        <v>0.04563698887180197</v>
       </c>
       <c r="Q14">
-        <v>376.7940658746192</v>
+        <v>418.853934088776</v>
       </c>
       <c r="R14">
-        <v>376.7940658746192</v>
+        <v>2513.123604532656</v>
       </c>
       <c r="S14">
-        <v>0.03695582972692182</v>
+        <v>0.03279194614089403</v>
       </c>
       <c r="T14">
-        <v>0.03695582972692182</v>
+        <v>0.02421749161641989</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H15">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I15">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J15">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.12902989469688</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N15">
-        <v>7.12902989469688</v>
+        <v>23.939497</v>
       </c>
       <c r="O15">
-        <v>0.2457180275209482</v>
+        <v>0.2497865318469965</v>
       </c>
       <c r="P15">
-        <v>0.2457180275209482</v>
+        <v>0.2766462923677706</v>
       </c>
       <c r="Q15">
-        <v>1360.878294270666</v>
+        <v>1692.696951513242</v>
       </c>
       <c r="R15">
-        <v>1360.878294270666</v>
+        <v>15234.27256361918</v>
       </c>
       <c r="S15">
-        <v>0.133474465436156</v>
+        <v>0.1325207256024318</v>
       </c>
       <c r="T15">
-        <v>0.133474465436156</v>
+        <v>0.146803709704645</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H16">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I16">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J16">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.3738813118411</v>
+        <v>7.758748</v>
       </c>
       <c r="N16">
-        <v>6.3738813118411</v>
+        <v>23.276244</v>
       </c>
       <c r="O16">
-        <v>0.2196901355068341</v>
+        <v>0.2428660996170663</v>
       </c>
       <c r="P16">
-        <v>0.2196901355068341</v>
+        <v>0.2689817001103893</v>
       </c>
       <c r="Q16">
-        <v>1216.726098174232</v>
+        <v>1645.800129446261</v>
       </c>
       <c r="R16">
-        <v>1216.726098174232</v>
+        <v>14812.20116501635</v>
       </c>
       <c r="S16">
-        <v>0.1193360686401875</v>
+        <v>0.1288491877744653</v>
       </c>
       <c r="T16">
-        <v>0.1193360686401875</v>
+        <v>0.1427364562918963</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H17">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I17">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J17">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.64872786355339</v>
+        <v>4.653158666666667</v>
       </c>
       <c r="N17">
-        <v>4.64872786355339</v>
+        <v>13.959476</v>
       </c>
       <c r="O17">
-        <v>0.1602288471203807</v>
+        <v>0.1456542339398937</v>
       </c>
       <c r="P17">
-        <v>0.1602288471203807</v>
+        <v>0.1613165589401012</v>
       </c>
       <c r="Q17">
-        <v>887.4072544129857</v>
+        <v>987.0367146779342</v>
       </c>
       <c r="R17">
-        <v>887.4072544129857</v>
+        <v>8883.330432101407</v>
       </c>
       <c r="S17">
-        <v>0.08703659203442503</v>
+        <v>0.07727480191207578</v>
       </c>
       <c r="T17">
-        <v>0.08703659203442503</v>
+        <v>0.08560342192373373</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H18">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I18">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J18">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.04058791343723</v>
+        <v>2.249720666666667</v>
       </c>
       <c r="N18">
-        <v>2.04058791343723</v>
+        <v>6.749162</v>
       </c>
       <c r="O18">
-        <v>0.07033344571129799</v>
+        <v>0.07042126945497384</v>
       </c>
       <c r="P18">
-        <v>0.07033344571129799</v>
+        <v>0.07799372910339122</v>
       </c>
       <c r="Q18">
-        <v>389.5329154130122</v>
+        <v>477.2149532911662</v>
       </c>
       <c r="R18">
-        <v>389.5329154130122</v>
+        <v>4294.934579620496</v>
       </c>
       <c r="S18">
-        <v>0.03820525161833341</v>
+        <v>0.03736101244935763</v>
       </c>
       <c r="T18">
-        <v>0.03820525161833341</v>
+        <v>0.04138775426223955</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H19">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I19">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J19">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.84697015029042</v>
+        <v>7.330557000000001</v>
       </c>
       <c r="N19">
-        <v>6.84697015029042</v>
+        <v>14.661114</v>
       </c>
       <c r="O19">
-        <v>0.2359962049080041</v>
+        <v>0.2294627672674229</v>
       </c>
       <c r="P19">
-        <v>0.2359962049080041</v>
+        <v>0.1694247306065459</v>
       </c>
       <c r="Q19">
-        <v>1307.035206288132</v>
+        <v>1554.971454094552</v>
       </c>
       <c r="R19">
-        <v>1307.035206288132</v>
+        <v>9329.828724567313</v>
       </c>
       <c r="S19">
-        <v>0.1281935542656591</v>
+        <v>0.1217382386158722</v>
       </c>
       <c r="T19">
-        <v>0.1281935542656591</v>
+        <v>0.08990606292198644</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H20">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I20">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J20">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.97385480470474</v>
+        <v>1.974591</v>
       </c>
       <c r="N20">
-        <v>1.97385480470474</v>
+        <v>3.949182</v>
       </c>
       <c r="O20">
-        <v>0.06803333923253485</v>
+        <v>0.06180909787364696</v>
       </c>
       <c r="P20">
-        <v>0.06803333923253485</v>
+        <v>0.04563698887180197</v>
       </c>
       <c r="Q20">
-        <v>1.168553586582214</v>
+        <v>2.650652124777001</v>
       </c>
       <c r="R20">
-        <v>1.168553586582214</v>
+        <v>15.903912748662</v>
       </c>
       <c r="S20">
-        <v>0.00011461132561171</v>
+        <v>0.0002075187425493085</v>
       </c>
       <c r="T20">
-        <v>0.00011461132561171</v>
+        <v>0.0001532566376617273</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H21">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I21">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J21">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.12902989469688</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N21">
-        <v>7.12902989469688</v>
+        <v>23.939497</v>
       </c>
       <c r="O21">
-        <v>0.2457180275209482</v>
+        <v>0.2497865318469965</v>
       </c>
       <c r="P21">
-        <v>0.2457180275209482</v>
+        <v>0.2766462923677706</v>
       </c>
       <c r="Q21">
-        <v>4.220499619548261</v>
+        <v>10.71196998756411</v>
       </c>
       <c r="R21">
-        <v>4.220499619548261</v>
+        <v>96.40772988807701</v>
       </c>
       <c r="S21">
-        <v>0.0004139451212972783</v>
+        <v>0.0008386368476143403</v>
       </c>
       <c r="T21">
-        <v>0.0004139451212972783</v>
+        <v>0.000929024496093877</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H22">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I22">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J22">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.3738813118411</v>
+        <v>7.758748</v>
       </c>
       <c r="N22">
-        <v>6.3738813118411</v>
+        <v>23.276244</v>
       </c>
       <c r="O22">
-        <v>0.2196901355068341</v>
+        <v>0.2428660996170663</v>
       </c>
       <c r="P22">
-        <v>0.2196901355068341</v>
+        <v>0.2689817001103893</v>
       </c>
       <c r="Q22">
-        <v>3.773439591224346</v>
+        <v>10.41519072648933</v>
       </c>
       <c r="R22">
-        <v>3.773439591224346</v>
+        <v>93.736716538404</v>
       </c>
       <c r="S22">
-        <v>0.00037009763063656</v>
+        <v>0.0008154020902135997</v>
       </c>
       <c r="T22">
-        <v>0.00037009763063656</v>
+        <v>0.0009032855140213733</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H23">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I23">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J23">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.64872786355339</v>
+        <v>4.653158666666667</v>
       </c>
       <c r="N23">
-        <v>4.64872786355339</v>
+        <v>13.959476</v>
       </c>
       <c r="O23">
-        <v>0.1602288471203807</v>
+        <v>0.1456542339398937</v>
       </c>
       <c r="P23">
-        <v>0.1602288471203807</v>
+        <v>0.1613165589401012</v>
       </c>
       <c r="Q23">
-        <v>2.752121181888339</v>
+        <v>6.246308682012891</v>
       </c>
       <c r="R23">
-        <v>2.752121181888339</v>
+        <v>56.21677813811601</v>
       </c>
       <c r="S23">
-        <v>0.0002699270795298672</v>
+        <v>0.0004890215925166698</v>
       </c>
       <c r="T23">
-        <v>0.0002699270795298672</v>
+        <v>0.000541727971838112</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H24">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I24">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J24">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.04058791343723</v>
+        <v>2.249720666666667</v>
       </c>
       <c r="N24">
-        <v>2.04058791343723</v>
+        <v>6.749162</v>
       </c>
       <c r="O24">
-        <v>0.07033344571129799</v>
+        <v>0.07042126945497384</v>
       </c>
       <c r="P24">
-        <v>0.07033344571129799</v>
+        <v>0.07799372910339122</v>
       </c>
       <c r="Q24">
-        <v>1.208060653346832</v>
+        <v>3.01998077842689</v>
       </c>
       <c r="R24">
-        <v>1.208060653346832</v>
+        <v>27.179827005842</v>
       </c>
       <c r="S24">
-        <v>0.0001184861648530722</v>
+        <v>0.0002364333696617976</v>
       </c>
       <c r="T24">
-        <v>0.0001184861648530722</v>
+        <v>0.000261915980361072</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H25">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I25">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J25">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.84697015029042</v>
+        <v>7.330557000000001</v>
       </c>
       <c r="N25">
-        <v>6.84697015029042</v>
+        <v>14.661114</v>
       </c>
       <c r="O25">
-        <v>0.2359962049080041</v>
+        <v>0.2294627672674229</v>
       </c>
       <c r="P25">
-        <v>0.2359962049080041</v>
+        <v>0.1694247306065459</v>
       </c>
       <c r="Q25">
-        <v>4.053515743545317</v>
+        <v>9.840395549179002</v>
       </c>
       <c r="R25">
-        <v>4.053515743545317</v>
+        <v>59.04237329507401</v>
       </c>
       <c r="S25">
-        <v>0.0003975674013499592</v>
+        <v>0.0007704015519295039</v>
       </c>
       <c r="T25">
-        <v>0.0003975674013499592</v>
+        <v>0.0005689565677183979</v>
       </c>
     </row>
   </sheetData>
